--- a/biology/Zoologie/Dircenna/Dircenna.xlsx
+++ b/biology/Zoologie/Dircenna/Dircenna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dircenna est un genre de papillons appartenant à la famille des Nymphalidae, à la sous-famille des Danainae et à la tribu Ithomiini.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique et  dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre  Dircenna a été nommé par Henry Doubleday en 1847[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre  Dircenna a été nommé par Henry Doubleday en 1847.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dircenna adina (Hewitson, 1855)
 Dircenna dero (Hübner, 1823)
-Dircenna jemina (Geyer, [1837])
+Dircenna jemina (Geyer, )
 Dircenna klugii (Geyer, 1837)
 Dircenna loreta Haensch, 1903
-Dircenna olyras (C. &amp; R. Felder, [1865])[1].
+Dircenna olyras (C. &amp; R. Felder, ).
 Sur les autres projets Wikimedia :
 Dircenna, sur Wikimedia CommonsDircenna, sur Wikispecies
 </t>
